--- a/Local/Data/medData/dqTestData.xlsx
+++ b/Local/Data/medData/dqTestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="81">
   <si>
     <t xml:space="preserve">Institut_ID</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t xml:space="preserve">F_101652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test</t>
   </si>
   <si>
     <t xml:space="preserve">P_20085759</t>
@@ -275,6 +278,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -362,11 +366,11 @@
   </sheetPr>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I29" activeCellId="0" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.71"/>
@@ -374,7 +378,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.74"/>
   </cols>
   <sheetData>
@@ -745,8 +749,8 @@
       <c r="G13" s="1" t="n">
         <v>43938</v>
       </c>
-      <c r="I13" s="0" t="n">
-        <v>3</v>
+      <c r="I13" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -754,16 +758,16 @@
         <v>9</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>1993</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F14" s="1" t="n">
         <v>43935</v>
@@ -772,7 +776,7 @@
         <v>43939</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -780,16 +784,16 @@
         <v>9</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>1994</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F15" s="1" t="n">
         <v>43936</v>
@@ -798,7 +802,7 @@
         <v>43940</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -806,16 +810,16 @@
         <v>9</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>1995</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F16" s="1" t="n">
         <v>43937</v>
@@ -829,16 +833,16 @@
         <v>9</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>1996</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F17" s="1" t="n">
         <v>43938</v>
@@ -847,7 +851,7 @@
         <v>43942</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>320</v>
@@ -858,16 +862,16 @@
         <v>9</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>1997</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F18" s="1" t="n">
         <v>43939</v>
@@ -876,7 +880,7 @@
         <v>43943</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>71529</v>
@@ -887,16 +891,16 @@
         <v>9</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>1998</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F19" s="1" t="n">
         <v>43940</v>
@@ -905,7 +909,7 @@
         <v>43944</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -913,10 +917,10 @@
         <v>9</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>1999</v>
@@ -939,10 +943,10 @@
         <v>9</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>2000</v>
@@ -965,10 +969,10 @@
         <v>9</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>2001</v>
@@ -983,7 +987,7 @@
         <v>43947</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -991,10 +995,10 @@
         <v>9</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>2002</v>
@@ -1020,10 +1024,10 @@
         <v>9</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>2003</v>
@@ -1049,10 +1053,10 @@
         <v>9</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>2025</v>
@@ -1078,10 +1082,10 @@
         <v>9</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>1990</v>
@@ -1107,10 +1111,10 @@
         <v>9</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>1980</v>
@@ -1125,7 +1129,7 @@
         <v>43891</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1133,10 +1137,10 @@
         <v>9</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>1855</v>
@@ -1151,7 +1155,7 @@
         <v>43951</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1159,10 +1163,10 @@
         <v>9</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>1840</v>
@@ -1177,7 +1181,10 @@
         <v>43952</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Local/Data/medData/dqTestData.xlsx
+++ b/Local/Data/medData/dqTestData.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="dqTestData_KT" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="dqTestData" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="93">
   <si>
     <t xml:space="preserve">Institut_ID</t>
   </si>
@@ -49,6 +49,24 @@
     <t xml:space="preserve">Orpha_Kode</t>
   </si>
   <si>
+    <t xml:space="preserve">Kontakt_Klasse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fall_Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DiagnoseRolle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagnosedatum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Land</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLZ</t>
+  </si>
+  <si>
     <t xml:space="preserve">259294944-TestHaus</t>
   </si>
   <si>
@@ -64,10 +82,28 @@
     <t xml:space="preserve">E75.0</t>
   </si>
   <si>
+    <t xml:space="preserve">Stationär</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erledigt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE</t>
+  </si>
+  <si>
     <t xml:space="preserve">P_20085652</t>
   </si>
   <si>
     <t xml:space="preserve">F_101642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambulant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND</t>
   </si>
   <si>
     <t xml:space="preserve">P_20085653</t>
@@ -278,7 +314,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -364,13 +399,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I29" activeCellId="0" sqref="I29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.71"/>
@@ -378,8 +413,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="5.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -410,22 +450,40 @@
       <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1981</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>43557</v>
@@ -434,27 +492,45 @@
         <v>43578</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>846</v>
       </c>
+      <c r="J2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>43557</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>4103</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1982</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>43558</v>
@@ -463,27 +539,45 @@
         <v>43579</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>797</v>
       </c>
+      <c r="J3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>43558</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>4303</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1983</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>43559</v>
@@ -492,27 +586,45 @@
         <v>43929</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>309151</v>
       </c>
+      <c r="J4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>43559</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>4103</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>1984</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>43560</v>
@@ -521,27 +633,45 @@
         <v>43930</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>309247</v>
       </c>
+      <c r="J5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>43560</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>4303</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>1985</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>43561</v>
@@ -550,7 +680,7 @@
         <v>43931</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>586</v>
@@ -558,19 +688,19 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>1986</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>43562</v>
@@ -579,7 +709,7 @@
         <v>43932</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>589</v>
@@ -587,19 +717,19 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>1987</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>43929</v>
@@ -608,7 +738,7 @@
         <v>43933</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>589</v>
@@ -616,19 +746,19 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>1988</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>43930</v>
@@ -637,7 +767,7 @@
         <v>43934</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>586</v>
@@ -645,19 +775,19 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>1989</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>43931</v>
@@ -666,7 +796,7 @@
         <v>43935</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>324</v>
@@ -674,19 +804,19 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>1990</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>43932</v>
@@ -695,7 +825,7 @@
         <v>43936</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>589</v>
@@ -703,19 +833,19 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>1991</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>43933</v>
@@ -729,19 +859,19 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>1992</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F13" s="1" t="n">
         <v>43934</v>
@@ -750,24 +880,24 @@
         <v>43938</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>1993</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F14" s="1" t="n">
         <v>43935</v>
@@ -776,24 +906,24 @@
         <v>43939</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>1994</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F15" s="1" t="n">
         <v>43936</v>
@@ -802,24 +932,24 @@
         <v>43940</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>1995</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F16" s="1" t="n">
         <v>43937</v>
@@ -830,19 +960,19 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>1996</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F17" s="1" t="n">
         <v>43938</v>
@@ -851,7 +981,7 @@
         <v>43942</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>320</v>
@@ -859,19 +989,19 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>1997</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F18" s="1" t="n">
         <v>43939</v>
@@ -880,7 +1010,7 @@
         <v>43943</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>71529</v>
@@ -888,19 +1018,19 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>1998</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F19" s="1" t="n">
         <v>43940</v>
@@ -909,24 +1039,24 @@
         <v>43944</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>1999</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F20" s="1" t="n">
         <v>43941</v>
@@ -935,24 +1065,24 @@
         <v>43945</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>2000</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F21" s="1" t="n">
         <v>43942</v>
@@ -961,24 +1091,24 @@
         <v>43946</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>2001</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F22" s="1" t="n">
         <v>43943</v>
@@ -987,24 +1117,24 @@
         <v>43947</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>2002</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F23" s="1" t="n">
         <v>43944</v>
@@ -1013,7 +1143,7 @@
         <v>43948</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="I23" s="0" t="n">
         <v>342</v>
@@ -1021,19 +1151,19 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>2003</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F24" s="1" t="n">
         <v>43923</v>
@@ -1042,7 +1172,7 @@
         <v>43929</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>226</v>
@@ -1050,19 +1180,19 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>2025</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F25" s="1" t="n">
         <v>43863</v>
@@ -1071,7 +1201,7 @@
         <v>43923</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>324</v>
@@ -1079,19 +1209,19 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>1990</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F26" s="1" t="n">
         <v>55155</v>
@@ -1100,7 +1230,7 @@
         <v>43923</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I26" s="0" t="n">
         <v>796</v>
@@ -1108,19 +1238,19 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>1980</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F27" s="1" t="n">
         <v>45659</v>
@@ -1129,24 +1259,24 @@
         <v>43891</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>1855</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F28" s="1" t="n">
         <v>43944</v>
@@ -1155,24 +1285,24 @@
         <v>43951</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>1840</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F29" s="1" t="n">
         <v>43945</v>
@@ -1181,10 +1311,36 @@
         <v>43952</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>40</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>1999</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>43975</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Local/Data/medData/dqTestData.xlsx
+++ b/Local/Data/medData/dqTestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="93">
   <si>
     <t xml:space="preserve">Institut_ID</t>
   </si>
@@ -82,10 +82,10 @@
     <t xml:space="preserve">E75.0</t>
   </si>
   <si>
-    <t xml:space="preserve">Stationär</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erledigt</t>
+    <t xml:space="preserve">IMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">finished</t>
   </si>
   <si>
     <t xml:space="preserve">HD</t>
@@ -100,7 +100,7 @@
     <t xml:space="preserve">F_101642</t>
   </si>
   <si>
-    <t xml:space="preserve">Ambulant</t>
+    <t xml:space="preserve">AMB</t>
   </si>
   <si>
     <t xml:space="preserve">ND</t>
@@ -314,6 +314,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -401,11 +402,11 @@
   </sheetPr>
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P8" activeCellId="0" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.71"/>
@@ -413,7 +414,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.73"/>
@@ -685,6 +686,24 @@
       <c r="I6" s="0" t="n">
         <v>586</v>
       </c>
+      <c r="J6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>43561</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>4503</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -714,6 +733,18 @@
       <c r="I7" s="0" t="n">
         <v>589</v>
       </c>
+      <c r="J7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>43562</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -743,6 +774,18 @@
       <c r="I8" s="0" t="n">
         <v>589</v>
       </c>
+      <c r="J8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>43563</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -772,6 +815,18 @@
       <c r="I9" s="0" t="n">
         <v>586</v>
       </c>
+      <c r="J9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>43564</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -801,6 +856,24 @@
       <c r="I10" s="0" t="n">
         <v>324</v>
       </c>
+      <c r="J10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>43565</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>5303</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -830,6 +903,24 @@
       <c r="I11" s="0" t="n">
         <v>589</v>
       </c>
+      <c r="J11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>43566</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>5503</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -856,6 +947,24 @@
       <c r="I12" s="0" t="n">
         <v>586</v>
       </c>
+      <c r="J12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <v>43567</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>5703</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -882,6 +991,24 @@
       <c r="I13" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="J13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <v>43568</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>5903</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
@@ -908,6 +1035,24 @@
       <c r="H14" s="0" t="s">
         <v>56</v>
       </c>
+      <c r="J14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <v>43569</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>6103</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
@@ -934,6 +1079,24 @@
       <c r="H15" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="J15" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <v>43570</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>6303</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
@@ -957,6 +1120,24 @@
       <c r="G16" s="1" t="n">
         <v>43941</v>
       </c>
+      <c r="J16" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <v>43571</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>6503</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
@@ -986,6 +1167,24 @@
       <c r="I17" s="0" t="n">
         <v>320</v>
       </c>
+      <c r="J17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <v>43572</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>6703</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
@@ -1015,6 +1214,24 @@
       <c r="I18" s="0" t="n">
         <v>71529</v>
       </c>
+      <c r="J18" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="1" t="n">
+        <v>43573</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>6903</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -1041,6 +1258,24 @@
       <c r="H19" s="0" t="s">
         <v>64</v>
       </c>
+      <c r="J19" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <v>43574</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>7103</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
@@ -1067,6 +1302,24 @@
       <c r="H20" s="0" t="s">
         <v>44</v>
       </c>
+      <c r="J20" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" s="1" t="n">
+        <v>43575</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>7303</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
@@ -1093,6 +1346,24 @@
       <c r="H21" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="J21" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" s="1" t="n">
+        <v>43576</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>7503</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
@@ -1119,6 +1390,24 @@
       <c r="H22" s="0" t="s">
         <v>76</v>
       </c>
+      <c r="J22" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="1" t="n">
+        <v>43577</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>7703</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
@@ -1148,6 +1437,24 @@
       <c r="I23" s="0" t="n">
         <v>342</v>
       </c>
+      <c r="J23" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M23" s="1" t="n">
+        <v>43578</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>7903</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
@@ -1177,6 +1484,24 @@
       <c r="I24" s="0" t="n">
         <v>226</v>
       </c>
+      <c r="J24" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="1" t="n">
+        <v>43579</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>8103</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
@@ -1206,6 +1531,24 @@
       <c r="I25" s="0" t="n">
         <v>324</v>
       </c>
+      <c r="J25" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="1" t="n">
+        <v>43580</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O25" s="0" t="n">
+        <v>8303</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
@@ -1235,6 +1578,24 @@
       <c r="I26" s="0" t="n">
         <v>796</v>
       </c>
+      <c r="J26" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" s="1" t="n">
+        <v>43581</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <v>8503</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
@@ -1261,6 +1622,24 @@
       <c r="H27" s="0" t="s">
         <v>86</v>
       </c>
+      <c r="J27" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="1" t="n">
+        <v>43582</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <v>8703</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
@@ -1287,6 +1666,24 @@
       <c r="H28" s="0" t="s">
         <v>89</v>
       </c>
+      <c r="J28" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M28" s="1" t="n">
+        <v>43583</v>
+      </c>
+      <c r="N28" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <v>8903</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
@@ -1316,6 +1713,24 @@
       <c r="I29" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="J29" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M29" s="1" t="n">
+        <v>43584</v>
+      </c>
+      <c r="N29" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <v>9103</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
@@ -1341,6 +1756,24 @@
       </c>
       <c r="H30" s="0" t="s">
         <v>44</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M30" s="1" t="n">
+        <v>43585</v>
+      </c>
+      <c r="N30" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O30" s="0" t="n">
+        <v>9303</v>
       </c>
     </row>
   </sheetData>

--- a/Local/Data/medData/dqTestData.xlsx
+++ b/Local/Data/medData/dqTestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="93">
   <si>
     <t xml:space="preserve">Institut_ID</t>
   </si>
@@ -400,13 +400,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P8" activeCellId="0" sqref="P8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.71"/>
@@ -1776,6 +1776,100 @@
         <v>9303</v>
       </c>
     </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>1990</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>55155</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>43923</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>796</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M31" s="1" t="n">
+        <v>43581</v>
+      </c>
+      <c r="N31" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <v>8503</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>1990</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>55155</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>43923</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>796</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M32" s="1" t="n">
+        <v>43581</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <v>8503</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
